--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -598,7 +598,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -901,7 +901,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -916,13 +916,13 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.43359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.21484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -598,7 +598,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -901,7 +901,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -916,13 +916,13 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.21484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -598,7 +598,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -901,7 +901,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -916,13 +916,13 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
